--- a/servidor/plantillasVacias/Detalle Planificacion Empleado.xlsx
+++ b/servidor/plantillasVacias/Detalle Planificacion Empleado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennytipan\Desktop\ProyectoFulltime\FullTimeV3\servidor\plantillasVacias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BBF7C1-338C-4835-AB88-0BBB427ED087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06506D0F-CE09-4DF6-B831-1139240E065C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCDF94B7-8F28-48CB-98FC-6471CD777CAD}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15105" windowHeight="10725" xr2:uid="{CCDF94B7-8F28-48CB-98FC-6471CD777CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Detalle Planificación Empleado" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -55,10 +49,10 @@
     <t>3 Normal</t>
   </si>
   <si>
-    <t>Eliminar fila: 2020-07-12</t>
-  </si>
-  <si>
     <t>horario1</t>
+  </si>
+  <si>
+    <t>Eliminar fila:12/07/2020</t>
   </si>
 </sst>
 </file>
@@ -463,7 +457,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -487,13 +481,13 @@
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
